--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_19-53.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_19-53.xlsx
@@ -1893,7 +1893,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>295</v>
+        <v>280.25</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -2812,7 +2812,7 @@
     </row>
     <row r="77" ht="26.25" customHeight="1">
       <c r="K77" s="10">
-        <v>5514.4899999999998</v>
+        <v>5499.7399999999998</v>
       </c>
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
